--- a/cap-rezultate_discutii/figures/evaluation.xlsx
+++ b/cap-rezultate_discutii/figures/evaluation.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="35">
   <si>
     <t xml:space="preserve">Ring </t>
   </si>
@@ -126,6 +126,15 @@
   <si>
     <t>447 MB</t>
   </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>8 intf per NE</t>
+  </si>
+  <si>
+    <t>18 intf per NE</t>
+  </si>
 </sst>
 </file>
 
@@ -212,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,6 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,10 +948,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'DT Cloud'!$H$17:$H$22</c:f>
+              <c:f>'DT Cloud'!$H$17:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -958,17 +968,20 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DT Cloud'!$J$17:$J$22</c:f>
+              <c:f>'DT Cloud'!$J$17:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.54E-2</c:v>
                 </c:pt>
@@ -980,6 +993,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.2500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,7 +1028,7 @@
         <c:axId val="251053016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1449,10 +1471,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'DT Cloud'!$H$17:$H$22</c:f>
+              <c:f>'DT Cloud'!$H$17:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1469,17 +1491,20 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DT Cloud'!$K$17:$K$22</c:f>
+              <c:f>'DT Cloud'!$K$17:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.1599999999999999E-2</c:v>
                 </c:pt>
@@ -1491,6 +1516,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.9099999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28449999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1517,7 +1551,7 @@
         <c:axId val="251053016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1960,10 +1994,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'DT Cloud'!$H$17:$H$22</c:f>
+              <c:f>'DT Cloud'!$H$17:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1980,17 +2014,20 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DT Cloud'!$L$17:$L$22</c:f>
+              <c:f>'DT Cloud'!$L$17:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.7160000000000002</c:v>
                 </c:pt>
@@ -2002,6 +2039,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>76.236000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152.62799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305.34800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>381.49599999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,7 +2074,7 @@
         <c:axId val="251053016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2169,7 +2215,7 @@
         <c:axId val="251052688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300"/>
+          <c:max val="500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4259,10 +4305,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Orbit Cloud'!$H$17:$H$22</c:f>
+              <c:f>'Orbit Cloud'!$H$17:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4279,17 +4325,20 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Orbit Cloud'!$I$17:$I$22</c:f>
+              <c:f>'Orbit Cloud'!$I$17:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10.52</c:v>
                 </c:pt>
@@ -4301,6 +4350,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>151.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>336.56700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>827.51199999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1147.088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4327,7 +4385,7 @@
         <c:axId val="251053016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4468,7 +4526,7 @@
         <c:axId val="251052688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="1200"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4770,10 +4828,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Orbit Cloud'!$H$17:$H$22</c:f>
+              <c:f>'Orbit Cloud'!$H$17:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4790,17 +4848,20 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Orbit Cloud'!$J$17:$J$22</c:f>
+              <c:f>'Orbit Cloud'!$J$17:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
@@ -4812,6 +4873,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.69E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53469999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4838,7 +4908,7 @@
         <c:axId val="251053016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5281,10 +5351,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Orbit Cloud'!$H$17:$H$22</c:f>
+              <c:f>'Orbit Cloud'!$H$17:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -5301,17 +5371,20 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Orbit Cloud'!$K$17:$K$22</c:f>
+              <c:f>'Orbit Cloud'!$K$17:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.1599999999999999E-2</c:v>
                 </c:pt>
@@ -5323,6 +5396,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.9199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48199999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5349,7 +5431,7 @@
         <c:axId val="251053016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5792,10 +5874,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Orbit Cloud'!$H$17:$H$22</c:f>
+              <c:f>'Orbit Cloud'!$H$17:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -5812,17 +5894,20 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Orbit Cloud'!$L$17:$L$22</c:f>
+              <c:f>'Orbit Cloud'!$L$17:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.7480000000000002</c:v>
                 </c:pt>
@@ -5834,6 +5919,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>92.296000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.88399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>376.25599999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>448.89600000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5860,7 +5954,7 @@
         <c:axId val="251053016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6001,7 +6095,7 @@
         <c:axId val="251052688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300"/>
+          <c:max val="500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6303,10 +6397,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'DT Cloud'!$H$17:$H$22</c:f>
+              <c:f>'DT Cloud'!$H$17:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -6323,17 +6417,20 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DT Cloud'!$I$17:$I$22</c:f>
+              <c:f>'DT Cloud'!$I$17:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>9.032</c:v>
                 </c:pt>
@@ -6345,6 +6442,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>127.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>287.815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>683.048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>945.14400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6371,7 +6477,7 @@
         <c:axId val="251053016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6512,7 +6618,7 @@
         <c:axId val="251052688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="1200"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -14156,10 +14262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L27"/>
+  <dimension ref="A3:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:I22"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14251,19 +14357,22 @@
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14298,7 +14407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -14330,7 +14439,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>10</v>
       </c>
@@ -14362,7 +14471,7 @@
         <v>19.436</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>20</v>
       </c>
@@ -14394,7 +14503,7 @@
         <v>38.956000000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>40</v>
       </c>
@@ -14426,7 +14535,7 @@
         <v>78.08</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>80</v>
       </c>
@@ -14458,7 +14567,7 @@
         <v>157.19200000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>100</v>
       </c>
@@ -14490,33 +14599,129 @@
         <v>197.244</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <v>13</v>
+      </c>
+      <c r="C31" s="5">
+        <v>122.69</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.1111</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="F31" s="5">
+        <v>59.851999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>40</v>
+      </c>
+      <c r="C32" s="5">
+        <v>414.95600000000002</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.26019999999999999</v>
+      </c>
+      <c r="F32" s="5">
+        <v>174.76400000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>121</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14527,7 +14732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
@@ -14540,10 +14745,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L27"/>
+  <dimension ref="A3:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14639,15 +14844,15 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14682,7 +14887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -14706,7 +14911,7 @@
         <v>5.7480000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>10</v>
       </c>
@@ -14730,7 +14935,7 @@
         <v>24.475999999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>20</v>
       </c>
@@ -14754,7 +14959,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>40</v>
       </c>
@@ -14778,7 +14983,7 @@
         <v>92.296000000000006</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>80</v>
       </c>
@@ -14789,12 +14994,20 @@
       <c r="H21" s="5">
         <v>80</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="5"/>
+      <c r="I21" s="5">
+        <v>336.56700000000001</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.2268</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.1946</v>
+      </c>
+      <c r="L21" s="5">
+        <v>215.88399999999999</v>
+      </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>100</v>
       </c>
@@ -14802,41 +15015,165 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="5"/>
-      <c r="H22" s="5">
-        <v>100</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="5"/>
+      <c r="H22" s="8">
+        <v>160</v>
+      </c>
+      <c r="I22" s="5">
+        <v>827.51199999999994</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.38650000000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="L22" s="5">
+        <v>376.25599999999997</v>
+      </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
+      <c r="H23" s="8">
+        <v>200</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1147.088</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.53469999999999995</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="L23" s="5">
+        <v>448.89600000000002</v>
+      </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <v>13</v>
+      </c>
+      <c r="C31" s="5">
+        <v>90.751999999999995</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.1076</v>
+      </c>
+      <c r="E31" s="6">
+        <v>5.74E-2</v>
+      </c>
+      <c r="F31" s="5">
+        <v>68.947999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>40</v>
+      </c>
+      <c r="C32" s="5">
+        <v>310.48</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.25330000000000003</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.1605</v>
+      </c>
+      <c r="F32" s="5">
+        <v>191.21199999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>121</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1253.8130000000001</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.7329</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="F33" s="5">
+        <v>583.76400000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14847,7 +15184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -14860,10 +15197,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L27"/>
+  <dimension ref="A3:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14959,15 +15296,15 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15002,7 +15339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>3</v>
       </c>
@@ -15026,7 +15363,7 @@
         <v>5.7160000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>10</v>
       </c>
@@ -15050,7 +15387,7 @@
         <v>19.056000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>20</v>
       </c>
@@ -15074,7 +15411,7 @@
         <v>38.095999999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>40</v>
       </c>
@@ -15098,7 +15435,7 @@
         <v>76.236000000000004</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>80</v>
       </c>
@@ -15109,12 +15446,20 @@
       <c r="H21" s="5">
         <v>80</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="5"/>
+      <c r="I21" s="5">
+        <v>287.815</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.19439999999999999</v>
+      </c>
+      <c r="L21" s="5">
+        <v>152.62799999999999</v>
+      </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>100</v>
       </c>
@@ -15122,41 +15467,165 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="5"/>
-      <c r="H22" s="5">
-        <v>100</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="5"/>
+      <c r="H22" s="8">
+        <v>160</v>
+      </c>
+      <c r="I22" s="5">
+        <v>683.048</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.24149999999999999</v>
+      </c>
+      <c r="L22" s="5">
+        <v>305.34800000000001</v>
+      </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
+      <c r="H23" s="8">
+        <v>200</v>
+      </c>
+      <c r="I23" s="5">
+        <v>945.14400000000001</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.28449999999999998</v>
+      </c>
+      <c r="L23" s="5">
+        <v>381.49599999999998</v>
+      </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <v>13</v>
+      </c>
+      <c r="C31" s="5">
+        <v>72.989999999999995</v>
+      </c>
+      <c r="D31" s="6">
+        <v>7.85E-2</v>
+      </c>
+      <c r="E31" s="6">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="F31" s="5">
+        <v>46.896000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>40</v>
+      </c>
+      <c r="C32" s="5">
+        <v>246.68700000000001</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.15959999999999999</v>
+      </c>
+      <c r="F32" s="5">
+        <v>144.33600000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>121</v>
+      </c>
+      <c r="C33" s="5">
+        <v>981.904</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.58979999999999999</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.44140000000000001</v>
+      </c>
+      <c r="F33" s="5">
+        <v>436.79199999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15167,7 +15636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
